--- a/full deployed/your_file_updated.xlsx
+++ b/full deployed/your_file_updated.xlsx
@@ -464,7 +464,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>July 28 - July 30</t>
+          <t>July 22 - July 24</t>
         </is>
       </c>
     </row>
@@ -481,7 +481,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>July 31 - August 02</t>
+          <t>July 25 - July 27</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>August 03</t>
+          <t>July 28</t>
         </is>
       </c>
       <c r="D4" s="1" t="n"/>
@@ -511,7 +511,7 @@
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>August 04</t>
+          <t>July 29</t>
         </is>
       </c>
       <c r="D5" s="1" t="n"/>
@@ -524,7 +524,7 @@
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>August 05</t>
+          <t>July 30</t>
         </is>
       </c>
       <c r="D6" s="1" t="n"/>
@@ -542,7 +542,7 @@
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>August 06 - August 08</t>
+          <t>July 31 - August 02</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>August 09</t>
+          <t>August 03</t>
         </is>
       </c>
       <c r="D8" s="1" t="n"/>
@@ -572,7 +572,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>August 10 - August 12</t>
+          <t>August 04 - August 06</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>August 13</t>
+          <t>August 07</t>
         </is>
       </c>
       <c r="D10" s="1" t="n"/>
@@ -602,7 +602,7 @@
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>August 14</t>
+          <t>August 08</t>
         </is>
       </c>
       <c r="D11" s="1" t="n"/>
@@ -615,7 +615,7 @@
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>August 14</t>
+          <t>August 08</t>
         </is>
       </c>
       <c r="D12" s="1" t="n"/>
@@ -633,7 +633,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>August 15 - August 18</t>
+          <t>August 09 - August 12</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>August 19</t>
+          <t>August 13</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>August 20</t>
+          <t>August 14</t>
         </is>
       </c>
       <c r="D15" s="1" t="n"/>
@@ -680,7 +680,7 @@
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>August 21 - August 22</t>
+          <t>August 15 - August 16</t>
         </is>
       </c>
       <c r="D16" s="1" t="n"/>
@@ -693,7 +693,7 @@
       </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>August 23</t>
+          <t>August 17</t>
         </is>
       </c>
       <c r="D17" s="1" t="n"/>
@@ -711,7 +711,7 @@
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>August 24 - August 25</t>
+          <t>August 18 - August 19</t>
         </is>
       </c>
       <c r="D18" s="1" t="n"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>August 26</t>
+          <t>August 20</t>
         </is>
       </c>
       <c r="D19" s="1" t="n"/>
@@ -742,7 +742,7 @@
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>August 27 - August 28</t>
+          <t>August 21 - August 22</t>
         </is>
       </c>
       <c r="D20" s="1" t="n"/>
@@ -755,7 +755,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>August 29</t>
+          <t>August 23</t>
         </is>
       </c>
       <c r="D21" s="1" t="n"/>
@@ -773,7 +773,7 @@
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>August 30</t>
+          <t>August 24</t>
         </is>
       </c>
       <c r="D22" s="1" t="n"/>
@@ -786,7 +786,7 @@
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>August 30</t>
+          <t>August 24</t>
         </is>
       </c>
       <c r="D23" s="1" t="n"/>
@@ -804,7 +804,7 @@
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>August 31</t>
+          <t>August 25</t>
         </is>
       </c>
       <c r="D24" s="1" t="n"/>
@@ -817,7 +817,7 @@
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>September 01</t>
+          <t>August 26</t>
         </is>
       </c>
       <c r="D25" s="1" t="n"/>
@@ -835,7 +835,7 @@
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>September 02</t>
+          <t>August 27</t>
         </is>
       </c>
       <c r="D26" s="1" t="n"/>
@@ -848,7 +848,7 @@
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>September 03</t>
+          <t>August 28</t>
         </is>
       </c>
       <c r="D27" s="1" t="n"/>
@@ -866,7 +866,7 @@
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>September 04</t>
+          <t>August 29</t>
         </is>
       </c>
       <c r="D28" s="1" t="n"/>
@@ -879,7 +879,7 @@
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>September 05</t>
+          <t>August 30</t>
         </is>
       </c>
       <c r="D29" s="1" t="n"/>
@@ -892,7 +892,7 @@
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>September 06</t>
+          <t>August 31</t>
         </is>
       </c>
       <c r="D30" s="1" t="n"/>
@@ -905,7 +905,7 @@
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>September 07</t>
+          <t>September 01</t>
         </is>
       </c>
       <c r="D31" s="1" t="n"/>
@@ -918,7 +918,7 @@
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>September 08 - September 09</t>
+          <t>September 02 - September 03</t>
         </is>
       </c>
       <c r="D32" s="1" t="n"/>
@@ -936,7 +936,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>September 10</t>
+          <t>September 04</t>
         </is>
       </c>
       <c r="D33" s="1" t="n"/>
@@ -949,7 +949,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>September 10</t>
+          <t>September 04</t>
         </is>
       </c>
     </row>
@@ -966,7 +966,7 @@
       </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>September 11 - September 12</t>
+          <t>September 05 - September 06</t>
         </is>
       </c>
       <c r="D35" s="1" t="n"/>
@@ -979,7 +979,7 @@
       </c>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>September 13</t>
+          <t>September 07</t>
         </is>
       </c>
       <c r="D36" s="1" t="n"/>
@@ -997,7 +997,7 @@
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>September 14 - September 16</t>
+          <t>September 08 - September 10</t>
         </is>
       </c>
       <c r="D37" s="1" t="n"/>
@@ -1010,7 +1010,7 @@
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>September 17</t>
+          <t>September 11</t>
         </is>
       </c>
       <c r="D38" s="1" t="n"/>
@@ -1028,7 +1028,7 @@
       </c>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>September 18 - September 19</t>
+          <t>September 12 - September 13</t>
         </is>
       </c>
       <c r="D39" s="1" t="n"/>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C40" s="1" t="inlineStr">
         <is>
-          <t>September 20</t>
+          <t>September 14</t>
         </is>
       </c>
       <c r="D40" s="1" t="n"/>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="C41" s="1" t="inlineStr">
         <is>
-          <t>September 21 - September 22</t>
+          <t>September 15 - September 16</t>
         </is>
       </c>
       <c r="D41" s="1" t="n"/>
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C42" s="1" t="inlineStr">
         <is>
-          <t>September 23</t>
+          <t>September 17</t>
         </is>
       </c>
       <c r="D42" s="1" t="n"/>
@@ -1090,7 +1090,7 @@
       </c>
       <c r="C43" s="1" t="inlineStr">
         <is>
-          <t>September 24 - September 25</t>
+          <t>September 18 - September 19</t>
         </is>
       </c>
       <c r="D43" s="1" t="n"/>
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C44" s="1" t="inlineStr">
         <is>
-          <t>September 26</t>
+          <t>September 20</t>
         </is>
       </c>
       <c r="D44" s="1" t="n"/>
@@ -1121,7 +1121,7 @@
       </c>
       <c r="C45" s="1" t="inlineStr">
         <is>
-          <t>September 27 - September 29</t>
+          <t>September 21 - September 23</t>
         </is>
       </c>
       <c r="D45" s="1" t="n"/>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="C46" s="1" t="inlineStr">
         <is>
-          <t>September 30</t>
+          <t>September 24</t>
         </is>
       </c>
       <c r="D46" s="1" t="n"/>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="C47" s="1" t="inlineStr">
         <is>
-          <t>October 01</t>
+          <t>September 25</t>
         </is>
       </c>
       <c r="D47" s="1" t="n"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="C48" s="1" t="inlineStr">
         <is>
-          <t>October 02</t>
+          <t>September 26</t>
         </is>
       </c>
       <c r="D48" s="1" t="n"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C49" s="1" t="inlineStr">
         <is>
-          <t>October 03</t>
+          <t>September 27</t>
         </is>
       </c>
       <c r="D49" s="1" t="n"/>
@@ -1196,7 +1196,7 @@
       </c>
       <c r="C50" s="1" t="inlineStr">
         <is>
-          <t>October 03</t>
+          <t>September 27</t>
         </is>
       </c>
       <c r="D50" s="1" t="n"/>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="C51" s="1" t="inlineStr">
         <is>
-          <t>October 04 - October 05</t>
+          <t>September 28 - September 29</t>
         </is>
       </c>
       <c r="D51" s="1" t="n"/>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C52" s="1" t="inlineStr">
         <is>
-          <t>October 06 - October 07</t>
+          <t>September 30 - October 01</t>
         </is>
       </c>
       <c r="D52" s="1" t="n"/>
@@ -1240,7 +1240,7 @@
       </c>
       <c r="C53" s="1" t="inlineStr">
         <is>
-          <t>October 08 - October 09</t>
+          <t>October 02 - October 03</t>
         </is>
       </c>
       <c r="D53" s="1" t="n"/>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C54" s="1" t="inlineStr">
         <is>
-          <t>October 10 - October 11</t>
+          <t>October 04 - October 05</t>
         </is>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>October 12 - October 13</t>
+          <t>October 06 - October 07</t>
         </is>
       </c>
     </row>
@@ -1292,7 +1292,7 @@
       </c>
       <c r="C56" s="1" t="inlineStr">
         <is>
-          <t>October 14 - October 15</t>
+          <t>October 08 - October 09</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>October 16 - October 17</t>
+          <t>October 10 - October 11</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>October 18 - October 19</t>
+          <t>October 12 - October 13</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>October 20 - October 21</t>
+          <t>October 14 - October 15</t>
         </is>
       </c>
     </row>
@@ -1355,7 +1355,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>October 21 - October 24</t>
+          <t>October 15 - October 18</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>October 25 - October 27</t>
+          <t>October 19 - October 21</t>
         </is>
       </c>
     </row>
@@ -1384,7 +1384,7 @@
       </c>
       <c r="C62" s="1" t="inlineStr">
         <is>
-          <t>October 28</t>
+          <t>October 22</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1418,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>October 29 - October 31</t>
+          <t>October 23 - October 25</t>
         </is>
       </c>
     </row>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C65" s="1" t="inlineStr">
         <is>
-          <t>November 01</t>
+          <t>October 26</t>
         </is>
       </c>
       <c r="D65" s="1" t="n"/>
@@ -1448,7 +1448,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>November 02 - November 05</t>
+          <t>October 27 - October 30</t>
         </is>
       </c>
       <c r="D66" s="1" t="n"/>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>November 06</t>
+          <t>October 31</t>
         </is>
       </c>
     </row>
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>November 07 - November 08</t>
+          <t>November 01 - November 02</t>
         </is>
       </c>
       <c r="D69" s="1" t="n"/>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="C70" s="1" t="inlineStr">
         <is>
-          <t>November 09 - November 10</t>
+          <t>November 03 - November 04</t>
         </is>
       </c>
       <c r="D70" s="1" t="n"/>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>November 11</t>
+          <t>November 05</t>
         </is>
       </c>
       <c r="D71" s="1" t="n"/>
